--- a/ACC_Manual.xlsx
+++ b/ACC_Manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3A5D64-58B5-4138-8289-F15298EF4000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73B4AE0-92F0-4BA4-BECF-BD262286BA4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -592,7 +592,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
